--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3384.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3384.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.32369681952254</v>
+        <v>2.340131759643555</v>
       </c>
       <c r="B1">
-        <v>2.563279542816159</v>
+        <v>5.662359237670898</v>
       </c>
       <c r="C1">
-        <v>3.344256677589688</v>
+        <v>2.414208889007568</v>
       </c>
       <c r="D1">
-        <v>3.931487463057196</v>
+        <v>1.582539439201355</v>
       </c>
       <c r="E1">
-        <v>1.826690635903049</v>
+        <v>1.30165696144104</v>
       </c>
     </row>
   </sheetData>
